--- a/CY/audit variable codebook.xlsx
+++ b/CY/audit variable codebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stata\BWdisclosure audits\2024 June cleaning analysis 7 countries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cdocuments\GitHub\labor_audit\CY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A9ACE-3029-487C-888A-911B78094E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A44EFF-C8D6-421A-B317-A6793AF044DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Variable name</t>
   </si>
@@ -247,6 +247,24 @@
   </si>
   <si>
     <t>compliance rate % regarding distant CP items</t>
+  </si>
+  <si>
+    <t>auditdate</t>
+  </si>
+  <si>
+    <t>date format of Assessment date</t>
+  </si>
+  <si>
+    <t>yearmonth</t>
+  </si>
+  <si>
+    <t>year month of the assessment date;</t>
+  </si>
+  <si>
+    <t>reportedcnty</t>
+  </si>
+  <si>
+    <t>dummy=1 if in 5 reported countries</t>
   </si>
 </sst>
 </file>
@@ -573,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -881,6 +899,30 @@
         <v>73</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
